--- a/evaluations/Forkin-Finding-gemma3-bert-scores.xlsx
+++ b/evaluations/Forkin-Finding-gemma3-bert-scores.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Sharma\OneDrive - UWA\Desktop\coroner\evaluations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFD47B1-6E79-4744-8994-22F1042D5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>FILENAME</t>
   </si>
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +236,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,13 +293,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +345,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -359,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,9 +414,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,14 +590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -621,13 +645,19 @@
         <v>0.7936745285987854</v>
       </c>
       <c r="G2">
-        <v>0.8426667451858521</v>
+        <v>0.84266674518585205</v>
       </c>
       <c r="H2">
-        <v>0.8174372315406799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.81743723154067993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -638,16 +668,22 @@
         <v>41</v>
       </c>
       <c r="F3">
-        <v>0.8844784498214722</v>
+        <v>0.88447844982147217</v>
       </c>
       <c r="G3">
-        <v>0.9760313034057617</v>
+        <v>0.97603130340576172</v>
       </c>
       <c r="H3">
-        <v>0.9280022382736206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.92800223827362061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -658,7 +694,7 @@
         <v>42</v>
       </c>
       <c r="F4">
-        <v>0.9707950949668884</v>
+        <v>0.97079509496688843</v>
       </c>
       <c r="G4">
         <v>0.9102206826210022</v>
@@ -667,7 +703,13 @@
         <v>0.9395325779914856</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -678,16 +720,22 @@
         <v>43</v>
       </c>
       <c r="F5">
-        <v>0.8867113590240479</v>
+        <v>0.88671135902404785</v>
       </c>
       <c r="G5">
         <v>0.8827364444732666</v>
       </c>
       <c r="H5">
-        <v>0.8847194314002991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.88471943140029907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -698,16 +746,22 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <v>0.9999997019767761</v>
+        <v>0.99999970197677612</v>
       </c>
       <c r="G6">
-        <v>0.9999997019767761</v>
+        <v>0.99999970197677612</v>
       </c>
       <c r="H6">
-        <v>0.9999997019767761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.99999970197677612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -718,16 +772,22 @@
         <v>44</v>
       </c>
       <c r="F7">
-        <v>0.8252744078636169</v>
+        <v>0.82527440786361694</v>
       </c>
       <c r="G7">
-        <v>0.8453437089920044</v>
+        <v>0.84534370899200439</v>
       </c>
       <c r="H7">
-        <v>0.8351885676383972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.83518856763839722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -738,16 +798,22 @@
         <v>45</v>
       </c>
       <c r="F8">
-        <v>0.8207353353500366</v>
+        <v>0.82073533535003662</v>
       </c>
       <c r="G8">
-        <v>0.858917772769928</v>
+        <v>0.85891777276992798</v>
       </c>
       <c r="H8">
-        <v>0.8393925428390503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.83939254283905029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -758,16 +824,22 @@
         <v>46</v>
       </c>
       <c r="F9">
-        <v>0.8312021493911743</v>
+        <v>0.83120214939117432</v>
       </c>
       <c r="G9">
-        <v>0.8537899255752563</v>
+        <v>0.85378992557525635</v>
       </c>
       <c r="H9">
-        <v>0.8423446416854858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.84234464168548584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -778,16 +850,22 @@
         <v>47</v>
       </c>
       <c r="F10">
-        <v>0.9164321422576904</v>
+        <v>0.91643214225769043</v>
       </c>
       <c r="G10">
-        <v>0.9458596706390381</v>
+        <v>0.94585967063903809</v>
       </c>
       <c r="H10">
-        <v>0.9309134483337402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.93091344833374023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -798,16 +876,22 @@
         <v>48</v>
       </c>
       <c r="F11">
-        <v>0.8547399044036865</v>
+        <v>0.85473990440368652</v>
       </c>
       <c r="G11">
-        <v>0.9360007047653198</v>
+        <v>0.93600070476531982</v>
       </c>
       <c r="H11">
-        <v>0.893526554107666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.89352655410766602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -818,16 +902,22 @@
         <v>49</v>
       </c>
       <c r="F12">
-        <v>0.8430305123329163</v>
+        <v>0.84303051233291626</v>
       </c>
       <c r="G12">
-        <v>0.8471304774284363</v>
+        <v>0.84713047742843628</v>
       </c>
       <c r="H12">
-        <v>0.8450755476951599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.84507554769515991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -838,16 +928,22 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>0.8400911688804626</v>
+        <v>0.84009116888046265</v>
       </c>
       <c r="G13">
-        <v>0.8578656911849976</v>
+        <v>0.85786569118499756</v>
       </c>
       <c r="H13">
-        <v>0.8488854169845581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.84888541698455811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -858,16 +954,22 @@
         <v>51</v>
       </c>
       <c r="F14">
-        <v>0.8038654327392578</v>
+        <v>0.80386543273925781</v>
       </c>
       <c r="G14">
-        <v>0.8412729501724243</v>
+        <v>0.84127295017242432</v>
       </c>
       <c r="H14">
-        <v>0.8221439123153687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.82214391231536865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -878,16 +980,22 @@
         <v>52</v>
       </c>
       <c r="F15">
-        <v>0.8290265202522278</v>
+        <v>0.82902652025222778</v>
       </c>
       <c r="G15">
-        <v>0.8550280332565308</v>
+        <v>0.85502803325653076</v>
       </c>
       <c r="H15">
-        <v>0.8418264985084534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.84182649850845337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -898,16 +1006,17 @@
         <v>53</v>
       </c>
       <c r="F16">
-        <v>0.8164836168289185</v>
+        <v>0.81648361682891846</v>
       </c>
       <c r="G16">
-        <v>0.8713929653167725</v>
+        <v>0.87139296531677246</v>
       </c>
       <c r="H16">
-        <v>0.8430451154708862</v>
+        <v>0.84304511547088623</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>